--- a/数据分析/项目/Airbnb产品数据分析/数据表.xlsx
+++ b/数据分析/项目/Airbnb产品数据分析/数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="性别" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20到30岁</t>
-  </si>
-  <si>
-    <t>20岁以下</t>
-  </si>
-  <si>
     <t>30到40岁</t>
   </si>
   <si>
@@ -511,6 +505,57 @@
   </si>
   <si>
     <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岁以下</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岁</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,9 +564,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +586,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -577,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -861,7 +913,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -911,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -923,15 +975,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3">
         <v>135484</v>
@@ -939,7 +991,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3">
         <v>73815</v>
@@ -947,7 +999,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3">
         <v>58881</v>
@@ -955,7 +1007,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="3">
         <v>10366</v>
@@ -963,7 +1015,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3">
         <v>9018</v>
@@ -971,7 +1023,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="3">
         <v>4153</v>
@@ -987,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1006,23 +1058,23 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3">
-        <v>41633</v>
+        <v>92804</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3">
-        <v>92804</v>
+        <v>41633</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>44212</v>
@@ -1030,7 +1082,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>18831</v>
@@ -1038,7 +1090,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>15971</v>
@@ -1047,6 +1099,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1055,14 +1108,14 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1070,7 +1123,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <v>206314</v>
@@ -1078,7 +1131,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>1632</v>
@@ -1086,7 +1139,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>1172</v>
@@ -1094,7 +1147,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>915</v>
@@ -1102,7 +1155,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>747</v>
@@ -1110,7 +1163,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>732</v>
@@ -1118,7 +1171,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>514</v>
@@ -1126,7 +1179,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>389</v>
@@ -1134,7 +1187,7 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>240</v>
@@ -1142,7 +1195,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>225</v>
@@ -1150,7 +1203,7 @@
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>122</v>
@@ -1158,7 +1211,7 @@
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>97</v>
@@ -1166,7 +1219,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>64</v>
@@ -1174,7 +1227,7 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>58</v>
@@ -1182,7 +1235,7 @@
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3">
         <v>54</v>
@@ -1190,7 +1243,7 @@
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3">
         <v>32</v>
@@ -1198,7 +1251,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3">
         <v>30</v>
@@ -1206,7 +1259,7 @@
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3">
         <v>24</v>
@@ -1214,7 +1267,7 @@
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
         <v>24</v>
@@ -1222,7 +1275,7 @@
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3">
         <v>22</v>
@@ -1230,7 +1283,7 @@
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3">
         <v>18</v>
@@ -1238,7 +1291,7 @@
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>14</v>
@@ -1246,7 +1299,7 @@
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
@@ -1254,7 +1307,7 @@
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
@@ -1262,7 +1315,7 @@
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
@@ -1271,6 +1324,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1279,7 +1333,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1289,15 +1343,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3">
         <v>62376</v>
@@ -1305,7 +1359,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3">
         <v>10094</v>
@@ -1313,7 +1367,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3">
         <v>5023</v>
@@ -1321,7 +1375,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>2835</v>
@@ -1329,7 +1383,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3">
         <v>2324</v>
@@ -1337,7 +1391,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3">
         <v>2249</v>
@@ -1345,7 +1399,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3">
         <v>1428</v>
@@ -1353,7 +1407,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3">
         <v>1061</v>
@@ -1361,7 +1415,7 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3">
         <v>762</v>
@@ -1369,7 +1423,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3">
         <v>539</v>
@@ -1377,7 +1431,7 @@
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3">
         <v>217</v>
@@ -1386,6 +1440,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1394,7 +1449,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1404,15 +1459,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3">
         <v>182717</v>
@@ -1420,7 +1475,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3">
         <v>19019</v>
@@ -1428,7 +1483,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3">
         <v>6261</v>
@@ -1436,7 +1491,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3">
         <v>5454</v>
@@ -1445,6 +1500,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1453,7 +1509,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B10" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1462,81 +1518,81 @@
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3">
         <v>86839</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3">
         <v>70887</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3">
         <v>13033</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3">
         <v>4773</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3">
         <v>4050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3">
         <v>1145</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3">
         <v>1096</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3">
         <v>842</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3">
         <v>52</v>
@@ -1545,6 +1601,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1552,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1621,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1572,7 +1629,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3">
         <v>61</v>
@@ -1580,7 +1637,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3">
         <v>102</v>
@@ -1588,7 +1645,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3">
         <v>163</v>
@@ -1596,7 +1653,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -1604,7 +1661,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3">
         <v>227</v>
@@ -1612,7 +1669,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3">
         <v>222</v>
@@ -1620,7 +1677,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3">
         <v>307</v>
@@ -1628,7 +1685,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3">
         <v>312</v>
@@ -1636,7 +1693,7 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3">
         <v>371</v>
@@ -1644,7 +1701,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3">
         <v>309</v>
@@ -1652,7 +1709,7 @@
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3">
         <v>286</v>
@@ -1660,7 +1717,7 @@
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3">
         <v>271</v>
@@ -1668,7 +1725,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3">
         <v>316</v>
@@ -1676,7 +1733,7 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3">
         <v>362</v>
@@ -1684,7 +1741,7 @@
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3">
         <v>491</v>
@@ -1692,7 +1749,7 @@
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3">
         <v>577</v>
@@ -1700,7 +1757,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3">
         <v>744</v>
@@ -1708,7 +1765,7 @@
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="3">
         <v>822</v>
@@ -1716,7 +1773,7 @@
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3">
         <v>993</v>
@@ -1724,7 +1781,7 @@
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3">
         <v>1454</v>
@@ -1732,7 +1789,7 @@
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3">
         <v>1864</v>
@@ -1740,7 +1797,7 @@
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3">
         <v>1477</v>
@@ -1748,7 +1805,7 @@
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3">
         <v>1386</v>
@@ -1756,7 +1813,7 @@
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3">
         <v>1289</v>
@@ -1764,7 +1821,7 @@
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3">
         <v>1589</v>
@@ -1772,7 +1829,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3">
         <v>1789</v>
@@ -1780,7 +1837,7 @@
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" s="3">
         <v>2192</v>
@@ -1788,7 +1845,7 @@
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" s="3">
         <v>2589</v>
@@ -1796,7 +1853,7 @@
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3">
         <v>3325</v>
@@ -1804,7 +1861,7 @@
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3">
         <v>3867</v>
@@ -1812,7 +1869,7 @@
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="3">
         <v>4582</v>
@@ -1820,7 +1877,7 @@
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3">
         <v>4476</v>
@@ -1828,7 +1885,7 @@
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B34" s="3">
         <v>4035</v>
@@ -1836,7 +1893,7 @@
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="3">
         <v>3828</v>
@@ -1844,7 +1901,7 @@
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B36" s="3">
         <v>3706</v>
@@ -1852,7 +1909,7 @@
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" s="3">
         <v>3484</v>
@@ -1860,7 +1917,7 @@
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B38" s="3">
         <v>4418</v>
@@ -1868,7 +1925,7 @@
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" s="3">
         <v>4362</v>
@@ -1876,7 +1933,7 @@
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" s="3">
         <v>5421</v>
@@ -1884,7 +1941,7 @@
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3">
         <v>5855</v>
@@ -1892,7 +1949,7 @@
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3">
         <v>6721</v>
@@ -1900,7 +1957,7 @@
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B43" s="3">
         <v>6765</v>
@@ -1908,7 +1965,7 @@
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B44" s="3">
         <v>7950</v>
@@ -1916,7 +1973,7 @@
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45" s="3">
         <v>8369</v>
@@ -1924,7 +1981,7 @@
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B46" s="3">
         <v>9125</v>
@@ -1932,7 +1989,7 @@
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" s="3">
         <v>7862</v>
@@ -1940,7 +1997,7 @@
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" s="3">
         <v>7751</v>
@@ -1948,7 +2005,7 @@
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="3">
         <v>8361</v>
@@ -1956,7 +2013,7 @@
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B50" s="3">
         <v>11111</v>
@@ -1964,7 +2021,7 @@
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" s="3">
         <v>9967</v>
@@ -1972,7 +2029,7 @@
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B52" s="3">
         <v>12058</v>
@@ -1980,7 +2037,7 @@
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="3">
         <v>12689</v>
@@ -1988,7 +2045,7 @@
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B54" s="3">
         <v>14895</v>
@@ -1996,7 +2053,7 @@
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B55" s="3">
         <v>15746</v>
@@ -2005,6 +2062,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2026,21 +2084,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>2739</v>
@@ -2054,7 +2112,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>1616</v>
@@ -2068,7 +2126,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>724</v>
@@ -2082,7 +2140,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>59234</v>
@@ -2096,7 +2154,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>10705</v>
@@ -2110,7 +2168,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>1508</v>
@@ -2124,7 +2182,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>375</v>
@@ -2138,7 +2196,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>6516</v>
@@ -2152,7 +2210,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>2785</v>
@@ -2166,7 +2224,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <v>368</v>
@@ -2180,7 +2238,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12">
         <v>296</v>
@@ -2194,7 +2252,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <v>252</v>
@@ -2208,7 +2266,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <v>271</v>
@@ -2222,7 +2280,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <v>451</v>
@@ -2259,21 +2317,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>63</v>
@@ -2287,7 +2345,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>20102</v>
@@ -2301,7 +2359,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4">
         <v>16425</v>
@@ -2315,7 +2373,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>2290</v>
@@ -2329,7 +2387,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>542</v>
@@ -2343,7 +2401,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>9</v>

--- a/数据分析/项目/Airbnb产品数据分析/数据表.xlsx
+++ b/数据分析/项目/Airbnb产品数据分析/数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="性别" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -615,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -630,6 +631,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1039,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2070,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2079,7 +2081,7 @@
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2092,7 +2094,7 @@
       <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2106,7 +2108,7 @@
       <c r="C2">
         <v>5691</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>0.48128599999999999</v>
       </c>
     </row>
@@ -2120,7 +2122,7 @@
       <c r="C3">
         <v>3471</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>0.46557199999999999</v>
       </c>
     </row>
@@ -2134,7 +2136,7 @@
       <c r="C4">
         <v>1677</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>0.43172300000000002</v>
       </c>
     </row>
@@ -2148,7 +2150,7 @@
       <c r="C5">
         <v>137426</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>0.43102499999999999</v>
       </c>
     </row>
@@ -2162,7 +2164,7 @@
       <c r="C6">
         <v>25069</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>0.42702099999999998</v>
       </c>
     </row>
@@ -2176,7 +2178,7 @@
       <c r="C7">
         <v>3656</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>0.41247299999999998</v>
       </c>
     </row>
@@ -2190,7 +2192,7 @@
       <c r="C8">
         <v>950</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>0.394737</v>
       </c>
     </row>
@@ -2204,7 +2206,7 @@
       <c r="C9">
         <v>16947</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>0.38449299999999997</v>
       </c>
     </row>
@@ -2218,7 +2220,7 @@
       <c r="C10">
         <v>8167</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>0.34100599999999998</v>
       </c>
     </row>
@@ -2232,7 +2234,7 @@
       <c r="C11">
         <v>1094</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>0.33638000000000001</v>
       </c>
     </row>
@@ -2246,7 +2248,7 @@
       <c r="C12">
         <v>889</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>0.33295799999999998</v>
       </c>
     </row>
@@ -2260,7 +2262,7 @@
       <c r="C13">
         <v>768</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>0.328125</v>
       </c>
     </row>
@@ -2274,7 +2276,7 @@
       <c r="C14">
         <v>829</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>0.32690000000000002</v>
       </c>
     </row>
@@ -2288,7 +2290,7 @@
       <c r="C15">
         <v>2892</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>0.155947</v>
       </c>
     </row>
